--- a/src/P02_data/T01_explore/S01_residual_stress_pre_weld.xlsx
+++ b/src/P02_data/T01_explore/S01_residual_stress_pre_weld.xlsx
@@ -10484,7 +10484,7 @@
         <v>60</v>
       </c>
       <c r="G324" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H324" t="n">
         <v>11</v>
